--- a/TestData/Manually extracted minutiae/Normal/Template_Ale1439794734-Hamster-1-1.xlsx
+++ b/TestData/Manually extracted minutiae/Normal/Template_Ale1439794734-Hamster-1-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.carrera\Documents\GitHub\libAFIS\TestData\Perfect minutiae\Normal fingers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.carrera\Documents\GitHub\libAFIS\TestData\Manually extracted minutiae\Normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>X</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Minutiae data</t>
   </si>
   <si>
-    <t>Finger Header</t>
-  </si>
-  <si>
     <t>Finger header</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>4087000B6600</t>
-  </si>
-  <si>
-    <t>464D52002032300000000144000000C0010C00C800C8010000006301</t>
-  </si>
-  <si>
     <t>464D520020323000000000</t>
   </si>
   <si>
@@ -113,6 +104,18 @@
   </si>
   <si>
     <t>0000</t>
+  </si>
+  <si>
+    <t>Finger Header Top</t>
+  </si>
+  <si>
+    <t>Finger Header Bottom</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Ending</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -186,14 +189,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -206,7 +204,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +488,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="Q2" sqref="Q2:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -548,18 +545,18 @@
         <v>6</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>16</v>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
         <v>71.429000000000002</v>
@@ -594,26 +591,26 @@
         <f>CONCATENATE(I2,J2,'Support Data'!$C$7,K2,L2,'Support Data'!$C$8)</f>
         <v>4047002F8F00</v>
       </c>
-      <c r="P2" s="13" t="str">
+      <c r="P2" s="12" t="str">
         <f>CONCATENATE('Support Data'!D11,'Support Data'!D12,'Support Data'!D13,'Support Data'!D14)</f>
         <v>464D520020323000000000F00000012C019000C500C5010000105B23</v>
       </c>
-      <c r="Q2" s="14" t="str">
+      <c r="Q2" s="13" t="str">
         <f>CONCATENATE(P2,P10,'Support Data'!C17)</f>
         <v>464D520020323000000000F00000012C019000C500C5010000105B234047002F8F004073003CFA0080B6003D75008031005E94008087005D7E00805D006608004037007795008045008F0600402600A4A000405400A5910040C300A4E60040A100ACF20040B500B47100403900BD1D0040A700CBED0080DC00E9690080AB00DF7000409000E6F200405900DE9300404500E91A00402E0102AD00406600F00F00408C00ED800080B200F8E50080C5010DDB00408400FBF200409B010F6700802F013728004057011B190040A401455C00406B012CF700402B015E280080F70110620040D101736D0080C1018068000000</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
         <v>115.91800000000001</v>
@@ -648,20 +645,20 @@
         <f>CONCATENATE(I3,J3,'Support Data'!$C$7,K3,L3,'Support Data'!$C$8)</f>
         <v>4073003CFA00</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>15</v>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C4">
         <v>182.857</v>
@@ -669,7 +666,7 @@
       <c r="D4">
         <v>61.633000000000003</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="11">
         <v>164.93</v>
       </c>
       <c r="F4">
@@ -696,19 +693,19 @@
         <f>CONCATENATE(I4,J4,'Support Data'!$C$7,K4,L4,'Support Data'!$C$8)</f>
         <v>80B6003D7500</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C5">
         <v>49.387999999999998</v>
@@ -743,19 +740,19 @@
         <f>CONCATENATE(I5,J5,'Support Data'!$C$7,K5,L5,'Support Data'!$C$8)</f>
         <v>8031005E9400</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>15</v>
+      <c r="B6" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C6">
         <v>135.51</v>
@@ -795,8 +792,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C7">
         <v>93.061000000000007</v>
@@ -836,8 +833,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>55.51</v>
@@ -877,8 +874,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>15</v>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C9">
         <v>69.796000000000006</v>
@@ -914,15 +911,15 @@
         <v>8045008F0600</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>16</v>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C10">
         <v>38.776000000000003</v>
@@ -966,8 +963,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>16</v>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C11">
         <v>84.897999999999996</v>
@@ -1007,8 +1004,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>16</v>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C12">
         <v>195.91800000000001</v>
@@ -1048,8 +1045,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>16</v>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C13">
         <v>161.63300000000001</v>
@@ -1089,8 +1086,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C14">
         <v>181.63300000000001</v>
@@ -1130,8 +1127,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>16</v>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C15">
         <v>57.143000000000001</v>
@@ -1171,8 +1168,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>16</v>
+      <c r="B16" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C16">
         <v>167.755</v>
@@ -1212,8 +1209,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>15</v>
+      <c r="B17" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C17">
         <v>220.816</v>
@@ -1253,8 +1250,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>15</v>
+      <c r="B18" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C18">
         <v>171.429</v>
@@ -1294,8 +1291,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
+      <c r="B19" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C19">
         <v>144.898</v>
@@ -1335,8 +1332,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
+      <c r="B20" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C20">
         <v>89.796000000000006</v>
@@ -1376,8 +1373,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>16</v>
+      <c r="B21" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C21">
         <v>69.796000000000006</v>
@@ -1417,8 +1414,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>16</v>
+      <c r="B22" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C22">
         <v>46.122</v>
@@ -1458,8 +1455,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>16</v>
+      <c r="B23" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C23">
         <v>102.041</v>
@@ -1499,8 +1496,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>16</v>
+      <c r="B24" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C24">
         <v>140</v>
@@ -1540,8 +1537,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>15</v>
+      <c r="B25" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C25">
         <v>178.77600000000001</v>
@@ -1581,8 +1578,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>15</v>
+      <c r="B26" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C26">
         <v>197.959</v>
@@ -1622,8 +1619,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>16</v>
+      <c r="B27" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C27">
         <v>132.245</v>
@@ -1663,8 +1660,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>16</v>
+      <c r="B28" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C28">
         <v>155.91800000000001</v>
@@ -1704,8 +1701,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>15</v>
+      <c r="B29" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C29">
         <v>47.755000000000003</v>
@@ -1745,8 +1742,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>16</v>
+      <c r="B30" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C30">
         <v>87.754999999999995</v>
@@ -1786,8 +1783,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>16</v>
+      <c r="B31" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C31">
         <v>164.08199999999999</v>
@@ -1827,8 +1824,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>16</v>
+      <c r="B32" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C32">
         <v>107.755</v>
@@ -1868,8 +1865,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>16</v>
+      <c r="B33" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C33">
         <v>43.265000000000001</v>
@@ -1909,8 +1906,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>15</v>
+      <c r="B34" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C34">
         <v>247.755</v>
@@ -1950,8 +1947,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>16</v>
+      <c r="B35" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C35">
         <v>209.38800000000001</v>
@@ -1991,8 +1988,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>15</v>
+      <c r="B36" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C36">
         <v>193.87799999999999</v>
@@ -2051,7 +2048,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2068,28 +2065,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2101,24 +2099,28 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2184,22 +2186,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="16"/>
+      <c r="B11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="15"/>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15"/>
       <c r="D12" t="str">
         <f>DEC2HEX(SUM(27,(6*D15),3))</f>
         <v>F0</v>
@@ -2209,20 +2211,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="15"/>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="16"/>
+      <c r="B14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="1" t="str">
         <f>DEC2HEX(COUNT('Collected Minutiae'!A2:A1000), 2)</f>
         <v>23</v>
@@ -2230,12 +2234,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="1">
         <f>COUNT('Collected Minutiae'!A2:A1000)</f>
         <v>35</v>
@@ -2245,34 +2249,21 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="str">
-        <f>CONCATENATE(C21,C22,0)</f>
-        <v>464D52002032300000000144000000C0010C00C800C80100000063014087000B66000</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
